--- a/reference_code/Asymm_v_T0_121323.xlsx
+++ b/reference_code/Asymm_v_T0_121323.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/craigem/Documents/Research/Tau:Map6 project/121223 data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sprou/repos/tau_mts/reference_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55361EA0-BEDC-6A4B-A506-B662F40D4822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC73E7-F8BB-7F4D-ADFB-B9F8FCB71CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="1420" windowWidth="40400" windowHeight="21940" xr2:uid="{CA397DA7-6DCE-ED43-814C-21F747C9D96D}"/>
+    <workbookView xWindow="4400" yWindow="1420" windowWidth="40400" windowHeight="26300" activeTab="1" xr2:uid="{CA397DA7-6DCE-ED43-814C-21F747C9D96D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="to_csv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>T0</t>
   </si>
@@ -192,6 +193,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14840603932741814"/>
+          <c:y val="9.9502487562189053E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3229,16 +3238,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>270934</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>643468</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>524933</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>135466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3265,16 +3274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>728134</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>643467</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:rowOff>143933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3302,15 +3311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>59266</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>677332</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16932</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3637,11 +3646,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDF56B8-0042-E944-BD59-37CB7E331232}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4189,7 +4202,425 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4983FAE1-0D64-ED45-9B1E-D12DFF7D5407}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="D3">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.2726999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>17.778700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.01</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="E5">
+        <v>2.9842</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>26.771999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="E6">
+        <v>2.3723000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>67.502700000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.2727</v>
+      </c>
+      <c r="D7">
+        <v>0.27729999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>25.6953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.29770000000000002</v>
+      </c>
+      <c r="E8">
+        <v>1.5270999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>51.860999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="E9">
+        <v>1.4226000000000001</v>
+      </c>
+      <c r="F9">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.4904</v>
+      </c>
+      <c r="I9">
+        <v>42.532899999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="E10">
+        <v>2.2004999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.21890000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>89.574700000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.41160000000000002</v>
+      </c>
+      <c r="E11">
+        <v>1.3252999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>84.525400000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.41820000000000002</v>
+      </c>
+      <c r="E12">
+        <v>1.0868</v>
+      </c>
+      <c r="F12">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="H12">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="I12">
+        <v>87.682199999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="D13">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="E13">
+        <v>2.238</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>66.685900000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="fa762a6f-4bb3-4cb0-a720-f318dab4a9ea" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bb69b376-5d76-417c-8bd2-2d24bdfdf616">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F86782CE24CF84CBBBB6BA617A95B12" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58168f9cddf8c4c4be4d2556037c186e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb69b376-5d76-417c-8bd2-2d24bdfdf616" xmlns:ns3="fa762a6f-4bb3-4cb0-a720-f318dab4a9ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12357374cbe2a5688140370039f7a66d" ns2:_="" ns3:_="">
     <xsd:import namespace="bb69b376-5d76-417c-8bd2-2d24bdfdf616"/>
@@ -4426,34 +4857,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="fa762a6f-4bb3-4cb0-a720-f318dab4a9ea" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bb69b376-5d76-417c-8bd2-2d24bdfdf616">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCCFA7D0-9CE0-4F50-99DF-547263724E90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BC90EE2-3B5A-477F-A37D-FFB1413450AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fa762a6f-4bb3-4cb0-a720-f318dab4a9ea"/>
+    <ds:schemaRef ds:uri="bb69b376-5d76-417c-8bd2-2d24bdfdf616"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C96BA76-7738-4927-B32A-0FF187003393}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C96BA76-7738-4927-B32A-0FF187003393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BC90EE2-3B5A-477F-A37D-FFB1413450AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCCFA7D0-9CE0-4F50-99DF-547263724E90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bb69b376-5d76-417c-8bd2-2d24bdfdf616"/>
+    <ds:schemaRef ds:uri="fa762a6f-4bb3-4cb0-a720-f318dab4a9ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>